--- a/September5PMMavenProject/ExcelDataSheets/SuiteA.xlsx
+++ b/September5PMMavenProject/ExcelDataSheets/SuiteA.xlsx
@@ -702,7 +702,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -744,12 +744,12 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -924,9 +924,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
